--- a/medicine/Psychotrope/Rioja_(DOC)/Rioja_(DOC).xlsx
+++ b/medicine/Psychotrope/Rioja_(DOC)/Rioja_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Denominación de Origen Calificada (équivalent espagnol de l'A.O.C., appellation d'origine contrôlée) Rioja est une des appellations d'origine les plus réputées d'Espagne pour les vins rouges depuis le milieu du XIXe siècle. Parmi les appellations d'origine (Denominación de Origen, DO) d'Espagne, elle est une des deux seules, avec le priorat, à jouir de la distinction DOC.
@@ -515,7 +527,9 @@
           <t>Géographie et climat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La région viticole se situe au Sud des monts Cantabriques, dans la vallée de l'Èbre et de l'Oja (rio Oja), dans des vallées situées à une certaine altitude et marquées par un climat continental. Plus précisément, les vignobles sont généralement plantés sur des plateaux situés environ 400 m au-dessus du niveau de la mer. Les montagnes Cantabriques isolent les vignobles et les protègent de certaines intempéries qui autrement descendraient du Nord et de l'Atlantique.
 </t>
@@ -546,7 +560,9 @@
           <t>Rioja Alta</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Couvrant l'ouest de l'appellation, au sud de l'Alava, en allant vers Burgos (elle comprend "l'enclave de Burgos"), cette sous-région est aussi plus élevée en altitude (400 à 500 m) que la Rioja Baja, donc moins chaude et marquée par une saison plus courte, ce qui confère un caractère plus classique, disons même plus proche du modèle français non-méridional, à ses crus, plus légers.
 Le cépage dominant y est le tempranillo. Le mot Temprano signifie « tôt » en castillan : il atteint sa maturité deux semaines avant le grenache.
@@ -578,7 +594,9 @@
           <t>Rioja Alavesa</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette section de l'appellation se trouve au nord de l'Èbre, dans la province basque d'Alava. Le climat est semblable à la Rioja Alta, et pourtant les vins sont plus ronds et plus denses quoique toujours en finesse.  La densité de vignes par hectare est plus faible à cause d'un sol rocheux, pratique viticole qui favorise cette richesse. Comme dans la Rioja Alta, la région se spécialise dans le tempranillo. Ces deux zones, situées en hauteur (400 à 500 m) et exposées aux brises nocturnes fraîches du nord, bénéficient d'une fraîcheur bénéfique à la qualité des vins.
 </t>
@@ -609,7 +627,9 @@
           <t>Rioja Baja</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-région (sud-est), la plus basse - descendant jusqu'à 300 m d'altitude, est plus chaude ; elle est, un peu à la manière de la Castille centrale, davantage influencée par la Méditerranée et des effets continentaux à la fois ce qui la rend plus sèche.
 La sécheresse augmentant, l'irrigation y est désormais permise depuis les années 1990.
@@ -645,10 +665,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La vigne a été introduite dans la région, comme en Hispanie, par les Phéniciens, les Carthaginois et les Romains, voire les Celtibères, également buveurs de cidre.
-Les documents les plus anciens faisant référence à de la vigne plantée dans la région remontent au IXe siècle de notre ère. Dans le cartullaire de San Millán, en effet, elles apparaissent dans la description d'une donation où est mentionné le monastère de Saint-André (San Andrès) de Trepeana, aujourd'hui Treviana. Même si l'on a longtemps considéré que la vigne était surreprésentée dans le paysage rural de la Rioja du Moyen Âge central (Xe – XIIIe siècles), on sait aujourd'hui qu'il faut nuancer cette idée : la vigne y occupait sa place habituelle dans les campagnes médiévales[1]. C'est seulement à la fin du XIIIe siècle que l'on enregistre les premières exportations de vin hors de la région : la viticulture devenait commerciale[2]. La région semble avoir évolué vers la spécialisation viticole, dont les premiers signes apparaissent au XVe siècle[3].
+Les documents les plus anciens faisant référence à de la vigne plantée dans la région remontent au IXe siècle de notre ère. Dans le cartullaire de San Millán, en effet, elles apparaissent dans la description d'une donation où est mentionné le monastère de Saint-André (San Andrès) de Trepeana, aujourd'hui Treviana. Même si l'on a longtemps considéré que la vigne était surreprésentée dans le paysage rural de la Rioja du Moyen Âge central (Xe – XIIIe siècles), on sait aujourd'hui qu'il faut nuancer cette idée : la vigne y occupait sa place habituelle dans les campagnes médiévales. C'est seulement à la fin du XIIIe siècle que l'on enregistre les premières exportations de vin hors de la région : la viticulture devenait commerciale. La région semble avoir évolué vers la spécialisation viticole, dont les premiers signes apparaissent au XVe siècle.
 Cependant, c'est à l'époque de la Renaissance que le vignoble commence à s'organiser avec un premier sceau de qualité, sous l'impulsion des viticulteurs de Logroño (XVIe siècle).
 En 1787, est créée la Real Sociedad Económica de Cosecheros de Rioja.
 Dans les années 1850-1860, Luciano, marquis de Murrieta (bodega Marqués de Murrieta) réalise ce qui est considéré comme le premier vin fin de la région et d'Espagne après un séjour d'apprentissage à Bordeaux. 
@@ -691,7 +713,9 @@
           <t>Viticulture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin rouge de Rioja est un assemblage spécifique de cépages espagnols. Il s'agit du tempranillo (environ 60 à 70 %), du grenache noir (environ 15 à 20 %), ainsi que du mazuelo - appelé cariñena ailleurs en Espagne et carignan en France - généralement aux alentours de 10 %) et du graciano (environ 5 %), spécialité locale, en proportions beaucoup plus faibles.
 Les vins rosés sont habituellement extraits des mêmes cépages.
@@ -726,7 +750,9 @@
           <t>Vinification et caractéristiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Une des caractéristiques des vins de Rioja est le vieillissement en fût de chêne, introduite au XVIIIe siècle sous l'influence des marchands bordelais, dont La Rioja fut longtemps emblématique en Espagne (la pratique s'est répandue). 
 À l'origine en barriques de chêne français, aujourd'hui, le vieillissement emploie des barriques de chêne américain et de chêne français (comme dans beaucoup de régions, c'est pour diminuer les coûts, le chêne français étant plus cher quoique beaucoup plus doux).
@@ -764,7 +790,9 @@
           <t>Catégories</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin rouge de Rioja est classé en quatre catégories.
 1. "Rioja" tout court, passe au plus quelques mois en baril de chêne.
@@ -802,7 +830,9 @@
           <t>Vignobles</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La tradition dans La Rioja est celle des bodegas. Comme les négociants dans d'autres régions célèbres, ils achetaient le raisin des producteurs et s'occupaient de l'assemblage, du vieillissement, etc. Beaucoup des producteurs sont organisés en coopératives. Mais aujourd'hui l'accent a été mis sur un lien plus direct entre la bodega et les parcelles de viticulture.
 </t>
@@ -833,7 +863,9 @@
           <t>Maisons célèbres</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les bodegas célèbres de Rioja, on peut signaler :
 Herederos del Marqués de Riscal
@@ -875,6 +907,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,7 +934,9 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astéroïde (209083) Rioja porte son nom.
 </t>
